--- a/Budgetmanagement.xlsx
+++ b/Budgetmanagement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otto.meerschman\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otto.meerschman\Documents\github\groep-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CBFA628-E9B9-4F92-93B5-56CC7262758C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A73F6F-183D-4228-849E-0E15E0B640B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD017AEE-0858-4B2D-B24F-02F0F0C9ACCF}"/>
   </bookViews>
@@ -33,44 +33,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>breadbord</t>
   </si>
   <si>
-    <t>wielen</t>
-  </si>
-  <si>
-    <t>motor</t>
-  </si>
-  <si>
     <t>kleursensor</t>
   </si>
   <si>
     <t>afstandsensor</t>
   </si>
   <si>
-    <t>reflectiesenser</t>
-  </si>
-  <si>
     <t xml:space="preserve">ball caster </t>
   </si>
   <si>
-    <t>motor shield</t>
-  </si>
-  <si>
-    <t>Rasberry pi</t>
-  </si>
-  <si>
-    <t>lithium ion</t>
-  </si>
-  <si>
-    <t>powerbank</t>
-  </si>
-  <si>
-    <t>gearmotor</t>
-  </si>
-  <si>
     <t>frame</t>
   </si>
   <si>
@@ -81,6 +57,75 @@
   </si>
   <si>
     <t>schatting</t>
+  </si>
+  <si>
+    <t>kleine</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>50/1 HP</t>
+  </si>
+  <si>
+    <t>Dual drive drv8833</t>
+  </si>
+  <si>
+    <t>motor  *2</t>
+  </si>
+  <si>
+    <t>wielen *2</t>
+  </si>
+  <si>
+    <t>Analoog</t>
+  </si>
+  <si>
+    <t>voorkeur MY rio</t>
+  </si>
+  <si>
+    <t>backup Rasberry</t>
+  </si>
+  <si>
+    <t>digitaal</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>motor shield IC</t>
+  </si>
+  <si>
+    <t>lithium ion  *2</t>
+  </si>
+  <si>
+    <t>printplaat</t>
+  </si>
+  <si>
+    <t>Powerbank</t>
+  </si>
+  <si>
+    <t>lithium *2</t>
+  </si>
+  <si>
+    <t>chassis print</t>
+  </si>
+  <si>
+    <t>micro metal gear motor beugel *2</t>
+  </si>
+  <si>
+    <t>60mm*8mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42mm*19mm </t>
+  </si>
+  <si>
+    <t>reflectiesensor</t>
+  </si>
+  <si>
+    <t>32mm*7mm</t>
+  </si>
+  <si>
+    <t>30_1</t>
   </si>
 </sst>
 </file>
@@ -96,12 +141,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,8 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -432,142 +500,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF7781-CB05-43B7-82DA-620DDF0BBC2E}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>320</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B10">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>240</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>180</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>500</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <f>SUM(B1:B21)</f>
-        <v>2250</v>
-      </c>
+      <c r="B29">
+        <f>SUM(B2:B28)</f>
+        <v>2810</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Budgetmanagement.xlsx
+++ b/Budgetmanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otto.meerschman\Documents\github\groep-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD5CFAE-DB08-4FD8-BBE4-087CD2BB5136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6894CE5-0C93-4D81-8EC0-ABB7319A4A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD017AEE-0858-4B2D-B24F-02F0F0C9ACCF}"/>
   </bookViews>

--- a/Budgetmanagement.xlsx
+++ b/Budgetmanagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otto.meerschman\Documents\github\groep-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6894CE5-0C93-4D81-8EC0-ABB7319A4A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEA3428-34CF-4AE4-B1FC-378F17A20FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD017AEE-0858-4B2D-B24F-02F0F0C9ACCF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>kleursensor</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Totaal van bestelling</t>
+  </si>
+  <si>
+    <t>makerbeam 60mm</t>
+  </si>
+  <si>
+    <t>wire to board socket</t>
   </si>
 </sst>
 </file>
@@ -611,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF7781-CB05-43B7-82DA-620DDF0BBC2E}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1053,10 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1083,6 +1089,15 @@
       <c r="D36">
         <v>60</v>
       </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1094,6 +1109,15 @@
       <c r="D37">
         <v>160</v>
       </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1105,6 +1129,15 @@
       <c r="D38">
         <v>150</v>
       </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1260,6 +1293,10 @@
         <f>SUM(D33:D50)</f>
         <v>1732</v>
       </c>
+      <c r="H52">
+        <f>SUM(H33:H50)</f>
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1267,7 +1304,7 @@
       </c>
       <c r="B54">
         <f>3500-D52-H52-L52-P52</f>
-        <v>1768</v>
+        <v>1677</v>
       </c>
     </row>
   </sheetData>

--- a/Budgetmanagement.xlsx
+++ b/Budgetmanagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otto.meerschman\Documents\github\groep-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEA3428-34CF-4AE4-B1FC-378F17A20FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE68BB-4A4B-455B-940B-A8A2ABD0B016}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD017AEE-0858-4B2D-B24F-02F0F0C9ACCF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>kleursensor</t>
   </si>
@@ -194,9 +194,6 @@
     <t xml:space="preserve">Aantal </t>
   </si>
   <si>
-    <t>Extra bestelling</t>
-  </si>
-  <si>
     <t>Aantal</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Nee</t>
-  </si>
-  <si>
-    <t>nee</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -234,6 +225,21 @@
   </si>
   <si>
     <t>wire to board socket</t>
+  </si>
+  <si>
+    <t>Extra bestelling 2</t>
+  </si>
+  <si>
+    <t>micrometal gear motor</t>
+  </si>
+  <si>
+    <t>Makerbeam 60mm</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -617,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF7781-CB05-43B7-82DA-620DDF0BBC2E}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,25 +1007,25 @@
         <v>50</v>
       </c>
       <c r="J32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" t="s">
         <v>53</v>
-      </c>
-      <c r="K32" t="s">
-        <v>54</v>
       </c>
       <c r="L32" t="s">
         <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>320</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1038,8 +1044,17 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1050,7 +1065,7 @@
         <v>70</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1058,8 +1073,17 @@
       <c r="H34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1070,7 +1094,7 @@
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1079,7 +1103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1099,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1119,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -1139,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1172,7 +1196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1183,7 +1207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1227,7 +1251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1260,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1271,23 +1295,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <f>SUM(D33:D50)</f>
@@ -1297,14 +1321,18 @@
         <f>SUM(H33:H50)</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f>SUM(L33:L40)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <f>3500-D52-H52-L52-P52</f>
-        <v>1677</v>
+        <v>1337</v>
       </c>
     </row>
   </sheetData>

--- a/Budgetmanagement.xlsx
+++ b/Budgetmanagement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otto.meerschman\Documents\github\groep-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2465ff4d818e327/groep-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE68BB-4A4B-455B-940B-A8A2ABD0B016}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{43FE68BB-4A4B-455B-940B-A8A2ABD0B016}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E0FC042-5ADE-4687-9608-21A09AB3E708}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD017AEE-0858-4B2D-B24F-02F0F0C9ACCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD017AEE-0858-4B2D-B24F-02F0F0C9ACCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>kleursensor</t>
   </si>
@@ -230,9 +222,6 @@
     <t>Extra bestelling 2</t>
   </si>
   <si>
-    <t>micrometal gear motor</t>
-  </si>
-  <si>
     <t>Makerbeam 60mm</t>
   </si>
   <si>
@@ -240,6 +229,12 @@
   </si>
   <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>micrometal gear motor 100:1</t>
   </si>
 </sst>
 </file>
@@ -261,7 +256,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +281,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -299,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +314,8 @@
     <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -623,23 +632,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF7781-CB05-43B7-82DA-620DDF0BBC2E}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -652,7 +661,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -675,7 +684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -696,13 +705,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -721,13 +730,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -739,13 +748,13 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -757,7 +766,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -773,7 +782,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -789,7 +798,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -801,7 +810,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -813,7 +822,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -825,7 +834,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -837,7 +846,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -857,7 +866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -869,13 +878,13 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -890,7 +899,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -905,7 +914,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -920,49 +929,49 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -975,19 +984,19 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1054,7 +1063,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -1083,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1102,8 +1111,17 @@
       <c r="H35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1185,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1229,7 +1247,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1303,37 +1321,66 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" t="s">
         <v>67</v>
       </c>
-      <c r="J51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D52">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8">
         <f>SUM(D33:D50)</f>
         <v>1732</v>
       </c>
-      <c r="H52">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
         <f>SUM(H33:H50)</f>
         <v>91</v>
       </c>
-      <c r="L52">
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8">
         <f>SUM(L33:L40)</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="7">
         <f>3500-D52-H52-L52-P52</f>
-        <v>1337</v>
-      </c>
+        <v>1217</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7">
+        <f>3500 - D52</f>
+        <v>1768</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7">
+        <f>D54-H52</f>
+        <v>1677</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7">
+        <f>H54-L52</f>
+        <v>1217</v>
+      </c>
+      <c r="M54" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
